--- a/results/xgbr_train.xlsx
+++ b/results/xgbr_train.xlsx
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08277928298316262</v>
+        <v>-0.08318890944582957</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.05732088386156153</v>
+        <v>-0.05790617081637017</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.609453517921648</v>
+        <v>-0.6334156050371067</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7163951855685791</v>
+        <v>-0.7451615853267117</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1971477080564594</v>
+        <v>-0.1996804606122911</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06657731772693865</v>
+        <v>-0.07295128576116339</v>
       </c>
     </row>
     <row r="5">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6776382868843942</v>
+        <v>0.6829905449383783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6720614158208122</v>
+        <v>0.6761456942398975</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7262454409001419</v>
+        <v>0.7395152237330389</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6866814913297399</v>
+        <v>0.6926365792964611</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6821536498298757</v>
+        <v>0.6926107193993014</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6849358129477339</v>
+        <v>0.6852021530792638</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6756471455831633</v>
+        <v>0.680911794413384</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6690980242809726</v>
+        <v>0.6730383183012454</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6606514389642346</v>
+        <v>0.6722933459867264</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6023265082262083</v>
+        <v>0.6033466470250419</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6711934308584921</v>
+        <v>0.6813383339329853</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6543652284614745</v>
+        <v>0.6525936111671558</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.943239866811614</v>
+        <v>1.92704027726453</v>
       </c>
       <c r="C9" t="n">
-        <v>1.933803659039258</v>
+        <v>1.921723746690912</v>
       </c>
       <c r="D9" t="n">
-        <v>1.696093852359167</v>
+        <v>1.654475624169477</v>
       </c>
       <c r="E9" t="n">
-        <v>1.751579444918442</v>
+        <v>1.734853893503501</v>
       </c>
       <c r="F9" t="n">
-        <v>2.00633112488697</v>
+        <v>1.97305120111073</v>
       </c>
       <c r="G9" t="n">
-        <v>2.045494951443597</v>
+        <v>2.044630187052906</v>
       </c>
     </row>
     <row r="10">
@@ -675,19 +675,19 @@
         <v>161</v>
       </c>
       <c r="C10" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.753770591056961</v>
+        <v>0.7591228491109451</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7199134660336091</v>
+        <v>0.7239977444526943</v>
       </c>
       <c r="D11" t="n">
-        <v>1.024601434647586</v>
+        <v>1.037871217480483</v>
       </c>
       <c r="E11" t="n">
-        <v>1.038992849656499</v>
+        <v>1.04494793762322</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8393964342844531</v>
+        <v>0.8498535038538788</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6571768697204848</v>
+        <v>0.6574432098520148</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7584264285663259</v>
+        <v>0.7641007038592136</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7264189081425342</v>
+        <v>0.7309444891176156</v>
       </c>
       <c r="D12" t="n">
-        <v>1.270104956885883</v>
+        <v>1.305708951023833</v>
       </c>
       <c r="E12" t="n">
-        <v>1.318721693794787</v>
+        <v>1.348508232351754</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8683411389149516</v>
+        <v>0.8810187945452763</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7209425461884131</v>
+        <v>0.7255448969283191</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.607243794766143</v>
+        <v>-1.623443384313227</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.522931466278878</v>
+        <v>-1.535011378627223</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.997644198369603</v>
+        <v>-2.039262426559294</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.887362798089568</v>
+        <v>-1.904088349504508</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.821971286621456</v>
+        <v>-1.855251210397697</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.547742108629503</v>
+        <v>-1.548606873020195</v>
       </c>
     </row>
     <row r="14">
@@ -775,19 +775,19 @@
         <v>-100</v>
       </c>
       <c r="C14" t="n">
-        <v>-61</v>
+        <v>-59</v>
       </c>
       <c r="D14" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E14" t="n">
         <v>-3</v>
       </c>
       <c r="F14" t="n">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="G14" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
     </row>
   </sheetData>

--- a/results/xgbr_train.xlsx
+++ b/results/xgbr_train.xlsx
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6829905449383783</v>
+        <v>0.6738126422451769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6761456942398975</v>
+        <v>0.6702546681084975</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7395152237330389</v>
+        <v>0.7281271689753933</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6926365792964611</v>
+        <v>0.7063750245863916</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6926107193993014</v>
+        <v>0.6724955505546144</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6852021530792638</v>
+        <v>0.6693473726473558</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.680911794413384</v>
+        <v>0.6716737087517026</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6730383183012454</v>
+        <v>0.6670907678855327</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6722933459867264</v>
+        <v>0.6579664383883981</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6033466470250419</v>
+        <v>0.6210761490472427</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6813383339329853</v>
+        <v>0.6604855143267159</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6525936111671558</v>
+        <v>0.6350965028817432</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.92704027726453</v>
+        <v>1.954736608692451</v>
       </c>
       <c r="C9" t="n">
-        <v>1.921723746690912</v>
+        <v>1.93912339936872</v>
       </c>
       <c r="D9" t="n">
-        <v>1.654475624169477</v>
+        <v>1.690254514143484</v>
       </c>
       <c r="E9" t="n">
-        <v>1.734853893503501</v>
+        <v>1.695638666241381</v>
       </c>
       <c r="F9" t="n">
-        <v>1.97305120111073</v>
+        <v>2.036585270787894</v>
       </c>
       <c r="G9" t="n">
-        <v>2.044630187052906</v>
+        <v>2.09548656513349</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C10" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7591228491109451</v>
+        <v>0.7499449464177437</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7239977444526943</v>
+        <v>0.7181067183212944</v>
       </c>
       <c r="D11" t="n">
-        <v>1.037871217480483</v>
+        <v>1.026483162722837</v>
       </c>
       <c r="E11" t="n">
-        <v>1.04494793762322</v>
+        <v>1.058686382913151</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8498535038538788</v>
+        <v>0.8297383350091918</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6574432098520148</v>
+        <v>0.6415884294201067</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7641007038592136</v>
+        <v>0.7548626181975322</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7309444891176156</v>
+        <v>0.7249969387019028</v>
       </c>
       <c r="D12" t="n">
-        <v>1.305708951023833</v>
+        <v>1.291382043425505</v>
       </c>
       <c r="E12" t="n">
-        <v>1.348508232351754</v>
+        <v>1.366237734373954</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8810187945452763</v>
+        <v>0.8601659749390069</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7255448969283191</v>
+        <v>0.7080477886429066</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.623443384313227</v>
+        <v>-1.595747052885306</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.535011378627223</v>
+        <v>-1.517611725949416</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.039262426559294</v>
+        <v>-2.003483536585287</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.904088349504508</v>
+        <v>-1.943303576766629</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.855251210397697</v>
+        <v>-1.791717140720532</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.548606873020195</v>
+        <v>-1.497750494939611</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-100</v>
+        <v>-93</v>
       </c>
       <c r="C14" t="n">
-        <v>-59</v>
+        <v>-57</v>
       </c>
       <c r="D14" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E14" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F14" t="n">
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="G14" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
     </row>
   </sheetData>
